--- a/data/통수기.xlsx
+++ b/data/통수기.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="9465" windowHeight="5475"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="9460" windowHeight="5480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$89</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -285,12 +290,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -298,7 +303,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +317,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -421,7 +426,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,24 +725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="4" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" customWidth="1"/>
-    <col min="18" max="18" width="30.375" customWidth="1"/>
+    <col min="2" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -745,7 +750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="26">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="26">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3471,7 +3476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="27">
+    <row r="62" spans="1:16" ht="28">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3578,8 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="1"/>
@@ -3601,7 +3605,7 @@
       </c>
       <c r="H65" s="2">
         <f t="shared" si="4"/>
-        <v>73.8</v>
+        <v>74.8</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" si="5"/>
@@ -4406,8 +4410,7 @@
         <v>27</v>
       </c>
       <c r="B88" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" s="2">
         <f t="shared" si="1"/>
@@ -4429,7 +4432,7 @@
       </c>
       <c r="H88" s="2">
         <f t="shared" si="4"/>
-        <v>72.400000000000006</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="5"/>
@@ -4473,40 +4476,55 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="16.149999999999999" customHeight="1"/>
+    <row r="90" spans="1:10" ht="16.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="30" max="16" man="1"/>
     <brk id="60" max="16" man="1"/>
   </rowBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>